--- a/medicine/Psychotrope/St-Ambroise/St-Ambroise.xlsx
+++ b/medicine/Psychotrope/St-Ambroise/St-Ambroise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La [Cervoise] St-Ambroise est une cervoise au miel développée par la société rochelaise Apinov et commercialisée depuis juin 2006.
 La St-Ambroise est par ailleurs une bière brassée au Québec par la brasserie McAuslan depuis 1989.
@@ -512,7 +524,9 @@
           <t>Cervoise Saint-Ambroise blonde</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La cervoise Saint-Ambroise blonde est une bière de haute fermentation à 6° d’alcool, élaborée à partir de malts d’orge de Poitou-Charentes, de houblon d’Alsace et de miel toutes fleurs de Vendée. Le miel est ajouté directement dans le moût en cours de fermentation, à raison de 2 kg par hectolitre (2 %).
 Il s’agit d’une bière de garde, c’est-à-dire qu’elle est maintenue à une température de 0 °C pendant 21 jours afin d’atteindre sa maturité finale.
@@ -551,7 +565,9 @@
           <t>Cervoise Saint-Ambroise blanche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La cervoise Saint-Ambroise Blanche est une bière au miel développée par la société rochelaise APINOV et commercialisée depuis mars 2007.
 C'est une bière de haute fermentation, non filtrée, à 4,5° d’alcool. Elle est élaborée à partir de malts d’orge et de froment du Poitou-Charente, de houblon d’Alsace et de miel de tilleul de Picardie. Le miel est ajouté directement dans le moût en cours de fermentation, à raison de 1,5 kg par hectolitre (1,5 %).
@@ -591,7 +607,9 @@
           <t>Cession de la marque</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La société Apinov a cédé la marque de la cervoise St Ambroise en avril 2010. Elle appartient désormais à la Société de Conditionnement et de Distribution Miels Villeneuve (SCDMV).
 </t>
